--- a/Model2/excel/Storage_technologies.xlsx
+++ b/Model2/excel/Storage_technologies.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Dataset" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,6 +923,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
